--- a/va_facility_data_2025-02-20/Marquette VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marquette%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marquette VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marquette%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf5b30fc62fe84b32a540ccfde0698443"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf3a96817f5ad4a9189cbc8896d2881b2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra87f93c27e694192af78bf6725425a31"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R61ea5059733145959cb983cda886a8fe"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R352d355e603d48f7964901834ac6c7ff"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rebfc636e15f540e7b11c583c335189da"/>
   </x:sheets>
 </x:workbook>
 </file>
